--- a/Cleaning_files/SalesTerritory.xlsx
+++ b/Cleaning_files/SalesTerritory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Sales Project\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Sales Project\Cleaning_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3867EE3-DC35-4061-B832-47E024A187B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08821C7-4000-40D6-951A-196D635ED5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE247504-AEF2-43E3-9863-DCDDB18627A6}"/>
   </bookViews>
@@ -225,18 +225,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72004F15-E3D8-46BA-9B75-D89A99D4B616}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
